--- a/رصيد.xlsx
+++ b/رصيد.xlsx
@@ -14,7 +14,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet1!$C$2:$K$140</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Sheet1!$C:$H,Sheet1!$2:$3</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$C$3:$K$132</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">Sheet1!$2:$3,Sheet1!$C:$H</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">Sheet1!$2:$3,Sheet1!$C:$H</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -421,19 +421,19 @@
       <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="22.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="22.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="23.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
